--- a/biology/Botanique/Véronique_(plante)/Véronique_(plante).xlsx
+++ b/biology/Botanique/Véronique_(plante)/Véronique_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_(plante)</t>
+          <t>Véronique_(plante)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Veronica
 Les véroniques (Veronica) sont un genre de plantes herbacées annuelles ou pérennes comptant plus de 200 espèces à travers le monde.
-La plante doit son nom à sainte Véronique, qui aurait recueilli un linge portant les traits du Christ et aurait, grâce à ce linge, guéri l'empereur Tibère de la lèpre. Or, la véronique officinale (Veronica officinalis) était utilisée autrefois en application sur les plaies des lépreux (d'où son nom familier d'herbe-aux-ladres). Pierre Fournier rapporte dans Les quatre flores de France que la fleur des véroniques était comparée au Moyen Âge à l'empreinte du Christ (verum icon, « vraie image ») car elle dessinait un visage rudimentaire avec les 2 anthères figurant les yeux[1].
+La plante doit son nom à sainte Véronique, qui aurait recueilli un linge portant les traits du Christ et aurait, grâce à ce linge, guéri l'empereur Tibère de la lèpre. Or, la véronique officinale (Veronica officinalis) était utilisée autrefois en application sur les plaies des lépreux (d'où son nom familier d'herbe-aux-ladres). Pierre Fournier rapporte dans Les quatre flores de France que la fleur des véroniques était comparée au Moyen Âge à l'empreinte du Christ (verum icon, « vraie image ») car elle dessinait un visage rudimentaire avec les 2 anthères figurant les yeux.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_(plante)</t>
+          <t>Véronique_(plante)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,17 +525,53 @@
           <t>Caractéristiques du genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Plantes généralement de petite taille, souvent rampantes, à feuilles opposées ou verticillées (dans quelques espèces, les feuilles supérieures sont alternes, par exemple Veronica persica). Les fleurs, également petites, peuvent former des racèmes, plus rarement des épis, ou être solitaires à l'aisselle des feuilles. Le calice hétérosépale a quatre sépales le plus souvent, parfois cinq. La corolle acquiert une actinomorphie secondaire dans cette famille, accompagnées d'une zygomorphie de l'androcée : les quatre pétales apparents forment une corolle pseudotétramère par réunion des 2 pétales adaxiaux postérieurs)[2], la couleur dominante étant le bleu. Dans beaucoup d'espèces, l'un des pétales est plus petit et plus clair que les trois autres. L'androcée diandre (deux étamines) résulte de l'avortement de l'étamine postérieur et des deux étamines antérieures. L'ovaire supère style[pas clair]. Le fruit est une capsule aplatie ou globuleuse, souvent en forme de cœur.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Plantes généralement de petite taille, souvent rampantes, à feuilles opposées ou verticillées (dans quelques espèces, les feuilles supérieures sont alternes, par exemple Veronica persica). Les fleurs, également petites, peuvent former des racèmes, plus rarement des épis, ou être solitaires à l'aisselle des feuilles. Le calice hétérosépale a quatre sépales le plus souvent, parfois cinq. La corolle acquiert une actinomorphie secondaire dans cette famille, accompagnées d'une zygomorphie de l'androcée : les quatre pétales apparents forment une corolle pseudotétramère par réunion des 2 pétales adaxiaux postérieurs), la couleur dominante étant le bleu. Dans beaucoup d'espèces, l'un des pétales est plus petit et plus clair que les trois autres. L'androcée diandre (deux étamines) résulte de l'avortement de l'étamine postérieur et des deux étamines antérieures. L'ovaire supère style[pas clair]. Le fruit est une capsule aplatie ou globuleuse, souvent en forme de cœur.
 Période de floraison : juin à septembre
 Couleur des fleurs : bleu, rose, blanc
 Exposition : soleil, mi-ombre, à l'abri des vents froids
 Type de sol : ordinaire, bien drainé
 Acidité du sol : neutre, calcaire
-Humidité du sol : sans excès
-Culture
-Utilisation : rocaille, massif, couvre-sol, bac
+Humidité du sol : sans excès</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Véronique_(plante)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_(plante)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Caractéristiques du genre</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Utilisation : rocaille, massif, couvre-sol, bac
 Hauteur : de 10 cm à 2 m selon les espèces
 Type de plante : arbuste à fleurs
 Type de végétation : vivace
@@ -543,38 +591,113 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>V%C3%A9ronique_(plante)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Véronique_(plante)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_(plante)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Classification classique
-En classification linnéenne, les véroniques sont classées dans la famille des Scrofulariacées.
-Classification phylogénétique
-La classification APG III (2009) situe les véroniques dans l'ordre des Lamiales et dans la famille des Plantaginacées.
-Espèces
-Selon NCBI  (3 août 2016)[3] :
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification classique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification linnéenne, les véroniques sont classées dans la famille des Scrofulariacées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Véronique_(plante)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_(plante)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Classification phylogénétique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification APG III (2009) situe les véroniques dans l'ordre des Lamiales et dans la famille des Plantaginacées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Véronique_(plante)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_(plante)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (3 août 2016) :
 Veronica abyssinica
 Veronica acinifolia – Véronique à feuilles de calament
 Veronica adamsii
@@ -883,8 +1006,43 @@
 Veronica wormskjoldii
 Veronica wyomingensis
 Veronica yunnanensis
-Hybrides
-Veronica × amphibola Hausskn.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Véronique_(plante)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_(plante)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Hybrides</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Veronica × amphibola Hausskn.
 Veronica × godronii Rouy
 Veronica × gracilis Uechtr. ex Velen.
 Veronica × johannis-wagneri Borsos
@@ -902,33 +1060,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>V%C3%A9ronique_(plante)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Véronique_(plante)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_(plante)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Calendrier</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 4e jour du mois de messidor du calendrier républicain / révolutionnaire français est officiellement dénommé jour de la véronique[4], généralement chaque 22 juin du calendrier grégorien.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 4e jour du mois de messidor du calendrier républicain / révolutionnaire français est officiellement dénommé jour de la véronique, généralement chaque 22 juin du calendrier grégorien.
 </t>
         </is>
       </c>
